--- a/Talent and Weapon Level-Up Material Drops/output/drop_rate_analysis.xlsx
+++ b/Talent and Weapon Level-Up Material Drops/output/drop_rate_analysis.xlsx
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.01420454545454545</v>
       </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" t="n">
@@ -643,7 +643,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" t="n">
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>0.02333333333333333</v>
+        <v>0.01988636363636364</v>
       </c>
       <c r="G7" s="1" t="n"/>
       <c r="H7" t="n">
@@ -719,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0.1133333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="G8" s="1" t="n"/>
       <c r="H8" t="n">
@@ -757,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.04</v>
+        <v>0.03693181818181818</v>
       </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" t="n">
@@ -795,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>0.12</v>
+        <v>0.1164772727272727</v>
       </c>
       <c r="G10" s="1" t="n"/>
       <c r="H10" t="n">
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>0.1033333333333333</v>
+        <v>0.09943181818181818</v>
       </c>
       <c r="G11" s="1" t="n"/>
       <c r="H11" t="n">
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>0.55</v>
+        <v>0.5539772727272727</v>
       </c>
       <c r="G12" s="1" t="n"/>
       <c r="H12" t="n">

--- a/Talent and Weapon Level-Up Material Drops/output/drop_rate_analysis.xlsx
+++ b/Talent and Weapon Level-Up Material Drops/output/drop_rate_analysis.xlsx
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>0.01420454545454545</v>
+        <v>0.01240694789081886</v>
       </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" t="n">
@@ -624,7 +624,7 @@
         <v>41</v>
       </c>
       <c r="M5" s="8" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N5" s="1" t="n"/>
     </row>
@@ -643,7 +643,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>0.03409090909090909</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" t="n">
@@ -662,7 +662,7 @@
         <v>26</v>
       </c>
       <c r="M6" s="8" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N6" s="1" t="n"/>
     </row>
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>0.01988636363636364</v>
+        <v>0.01985111662531017</v>
       </c>
       <c r="G7" s="1" t="n"/>
       <c r="H7" t="n">
@@ -700,7 +700,7 @@
         <v>24</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N7" s="1" t="n"/>
     </row>
@@ -719,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0.125</v>
+        <v>0.1240694789081886</v>
       </c>
       <c r="G8" s="1" t="n"/>
       <c r="H8" t="n">
@@ -738,7 +738,7 @@
         <v>23</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05</v>
       </c>
       <c r="N8" s="1" t="n"/>
     </row>
@@ -757,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.03693181818181818</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" t="n">
@@ -776,7 +776,7 @@
         <v>21</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N9" s="1" t="n"/>
     </row>
@@ -795,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>0.1164772727272727</v>
+        <v>0.1215880893300248</v>
       </c>
       <c r="G10" s="1" t="n"/>
       <c r="H10" t="n">
@@ -814,7 +814,7 @@
         <v>20</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N10" s="1" t="n"/>
     </row>
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>0.09943181818181818</v>
+        <v>0.1042183622828784</v>
       </c>
       <c r="G11" s="1" t="n"/>
       <c r="H11" t="n">
@@ -852,7 +852,7 @@
         <v>18</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="N11" s="1" t="n"/>
     </row>
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>0.5539772727272727</v>
+        <v>0.5533498759305211</v>
       </c>
       <c r="G12" s="1" t="n"/>
       <c r="H12" t="n">
@@ -890,7 +890,7 @@
         <v>17</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>0.2549019607843137</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="N12" s="1" t="n"/>
     </row>
@@ -913,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N13" s="1" t="n"/>
     </row>
@@ -936,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="N14" s="1" t="n"/>
     </row>
@@ -959,7 +959,7 @@
         <v>12</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N15" s="1" t="n"/>
     </row>
@@ -982,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.4313725490196079</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="N16" s="1" t="n"/>
     </row>
